--- a/doc/运行商特征衍生精简版.xlsx
+++ b/doc/运行商特征衍生精简版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/project/models/yunyingshang/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE10FD8-DC9B-784B-92D6-5B5F7F1D8FF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37054661-54E8-5E47-94F8-D2447627F050}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{D837EC89-1111-C047-94FD-893E1DF39EFC}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16300" xr2:uid="{D837EC89-1111-C047-94FD-893E1DF39EFC}"/>
   </bookViews>
   <sheets>
     <sheet name="通话属性" sheetId="5" r:id="rId1"/>
@@ -931,10 +931,6 @@
     <t>called_180_up_cnt</t>
   </si>
   <si>
-    <t>calls_180_up_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>4.通话时段</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1175,28 +1171,13 @@
     <t>非一线城市联系人个数</t>
   </si>
   <si>
-    <t>contacter_normal_city__rate</t>
-  </si>
-  <si>
     <t>非一线城市联系人占比</t>
   </si>
   <si>
-    <t>call_normal_city_time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>非一线城市通话时长</t>
   </si>
   <si>
-    <t>call_normal_city_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>非一线城市通话次数</t>
-  </si>
-  <si>
-    <t>call_normal_city_rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>非一线城市通话次数占比</t>
@@ -1555,160 +1536,137 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>7.联系人数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>living_city</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_contact_time</t>
+  </si>
+  <si>
+    <t>contacts_completeness</t>
+  </si>
+  <si>
+    <t>living_city_birthplace</t>
   </si>
   <si>
     <t>contacter_0_10_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>calls_180_up_cnt</t>
   </si>
   <si>
     <t>call_early_morning_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>call_morning_cnt</t>
   </si>
   <si>
     <t>call_nooning_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>call_morning_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>call_afternoon_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>call_toward_evening_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>call_evening_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>call_small_hour_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>call_midnight_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>call_nonlocal_time</t>
+  </si>
+  <si>
+    <t>call_first_tier_city_time</t>
+  </si>
+  <si>
+    <t>contacter_normal_city_cnt</t>
+  </si>
+  <si>
+    <t>contacter_normal_city_rate</t>
+  </si>
+  <si>
+    <t>call_normal_city_time</t>
+  </si>
+  <si>
+    <t>call_normal_city_cnt</t>
+  </si>
+  <si>
+    <t>call_normal_city_rate</t>
+  </si>
+  <si>
+    <t>contacter_risk_area_cnt</t>
+  </si>
+  <si>
+    <t>contacter_foreign_cnt</t>
+  </si>
+  <si>
+    <t>call_foreign_time</t>
+  </si>
+  <si>
+    <t>contacter_west_cnt</t>
+  </si>
+  <si>
+    <t>contacts_month_time_over_cnt</t>
+  </si>
+  <si>
+    <t>contacts_cnt</t>
+  </si>
+  <si>
+    <t>contacts_intimate</t>
   </si>
   <si>
     <t>call_fee_0_2_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>call_fee_0_2_rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>contacter_call_fee_0_2_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>call_fee_2_5_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>call_fee_2_5_rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>contacter_call_fee_2_5_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>call_fee_5_10_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>call_fee_5_10_rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>contacter_call_fee_5_10_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>call_fee_10_50_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>call_fee_10_50_rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>contacter_call_fee_10_50_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>call_fee_50_up_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>call_fee_50_up_rate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>contacter_call_fee_50_up_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>call_first_tier_city_time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>contacter_normal_city__cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>contacter_risk_area_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>contacter_foreign_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>call_foreign_time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>contacter_west_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>call_nonlocal_time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>contacts_intimate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>contacts_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>contacts_month_time_over_cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_contact_time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>contacts_completeness</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>living_city_birthplace</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.联系人数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2054,45 +2012,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2106,6 +2025,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2434,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7641BE7B-E763-E64A-A4E8-06C04668A0D6}">
   <dimension ref="A1:H191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:B107"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177:B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2466,11 +2424,11 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="27" t="s">
         <v>152</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>153</v>
@@ -2482,7 +2440,7 @@
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="41"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="11" t="s">
         <v>155</v>
       </c>
@@ -2495,9 +2453,9 @@
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="41"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="11" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>158</v>
@@ -2506,7 +2464,7 @@
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="41"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="11" t="s">
         <v>159</v>
       </c>
@@ -2520,7 +2478,7 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="41"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>162</v>
       </c>
@@ -2531,9 +2489,9 @@
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="41"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="11" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>164</v>
@@ -2544,31 +2502,31 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="41"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="30" t="s">
         <v>168</v>
       </c>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="41"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="44"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="41"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="11" t="s">
         <v>171</v>
       </c>
@@ -2579,7 +2537,7 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="41"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="11" t="s">
         <v>173</v>
       </c>
@@ -2590,9 +2548,9 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="42"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="11" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>175</v>
@@ -2608,562 +2566,562 @@
       <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:8" ht="17" customHeight="1">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="32" t="s">
         <v>178</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="36" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17">
-      <c r="A15" s="34"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="11" t="s">
         <v>181</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="17">
-      <c r="A16" s="34"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="11" t="s">
         <v>183</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="1:5" ht="17">
-      <c r="A17" s="34"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="11" t="s">
         <v>185</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" spans="1:5" ht="17">
-      <c r="A18" s="34"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="11" t="s">
         <v>187</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" spans="1:5" ht="17">
-      <c r="A19" s="34"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="11" t="s">
         <v>189</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:5" ht="17">
-      <c r="A20" s="34"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="15" t="s">
         <v>191</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
     </row>
     <row r="21" spans="1:5" ht="16" customHeight="1">
-      <c r="A21" s="34"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="11" t="s">
         <v>193</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="E21" s="31"/>
+      <c r="E21" s="36"/>
     </row>
     <row r="22" spans="1:5" ht="17">
-      <c r="A22" s="34"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="11" t="s">
         <v>195</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" spans="1:5" ht="17">
-      <c r="A23" s="34"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="11" t="s">
         <v>196</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:5" ht="17">
-      <c r="A24" s="34"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="11" t="s">
         <v>197</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
     </row>
     <row r="25" spans="1:5" ht="17">
-      <c r="A25" s="34"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="11" t="s">
         <v>198</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="1:5" ht="17">
-      <c r="A26" s="34"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="11" t="s">
         <v>199</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" spans="1:5" ht="17">
-      <c r="A27" s="34"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="15" t="s">
         <v>200</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="34"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="11" t="s">
         <v>201</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="E28" s="31"/>
+      <c r="E28" s="36"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="34"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="11" t="s">
         <v>203</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="34"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="11" t="s">
         <v>204</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="34"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="11" t="s">
         <v>205</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="36"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="34"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="11" t="s">
         <v>206</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="36"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="34"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="11" t="s">
         <v>207</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="34"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="15" t="s">
         <v>208</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="36"/>
     </row>
     <row r="35" spans="1:5" ht="16" customHeight="1">
-      <c r="A35" s="34"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="11" t="s">
         <v>209</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="E35" s="31"/>
+      <c r="E35" s="36"/>
     </row>
     <row r="36" spans="1:5" ht="17">
-      <c r="A36" s="34"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="11" t="s">
         <v>211</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="36"/>
     </row>
     <row r="37" spans="1:5" ht="17">
-      <c r="A37" s="34"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="11" t="s">
         <v>212</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="36"/>
     </row>
     <row r="38" spans="1:5" ht="17">
-      <c r="A38" s="34"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="11" t="s">
         <v>213</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="36"/>
     </row>
     <row r="39" spans="1:5" ht="17">
-      <c r="A39" s="34"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="11" t="s">
         <v>214</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="36"/>
     </row>
     <row r="40" spans="1:5" ht="17">
-      <c r="A40" s="34"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="11" t="s">
         <v>215</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="36"/>
     </row>
     <row r="41" spans="1:5" ht="17">
-      <c r="A41" s="34"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="15" t="s">
         <v>216</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="34"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="11" t="s">
         <v>217</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="E42" s="31"/>
+      <c r="E42" s="36"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="34"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="11" t="s">
         <v>219</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="31"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="36"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="34"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="11" t="s">
         <v>220</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="31"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="34"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="11" t="s">
         <v>221</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="36"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="34"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="11" t="s">
         <v>222</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="31"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="36"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="34"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="11" t="s">
         <v>223</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="31"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="36"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="34"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="15" t="s">
         <v>224</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="36"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="34"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="11" t="s">
         <v>225</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="E49" s="31"/>
+      <c r="E49" s="36"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="34"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="11" t="s">
         <v>227</v>
       </c>
       <c r="C50" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="31"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="36"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="34"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="11" t="s">
         <v>228</v>
       </c>
       <c r="C51" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="31"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="36"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="34"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="11" t="s">
         <v>229</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="31"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="36"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="34"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="11" t="s">
         <v>230</v>
       </c>
       <c r="C53" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D53" s="30"/>
-      <c r="E53" s="31"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="36"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="34"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="11" t="s">
         <v>231</v>
       </c>
       <c r="C54" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="31"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="36"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="34"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="15" t="s">
         <v>232</v>
       </c>
       <c r="C55" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="31"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="36"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="34"/>
+      <c r="A56" s="33"/>
       <c r="B56" s="11" t="s">
         <v>233</v>
       </c>
       <c r="C56" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="E56" s="31"/>
+      <c r="E56" s="36"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="34"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="11" t="s">
         <v>235</v>
       </c>
       <c r="C57" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D57" s="30"/>
-      <c r="E57" s="31"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="36"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="34"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="11" t="s">
         <v>236</v>
       </c>
       <c r="C58" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="D58" s="30"/>
-      <c r="E58" s="31"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="36"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="34"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="11" t="s">
         <v>237</v>
       </c>
       <c r="C59" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D59" s="30"/>
-      <c r="E59" s="31"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="36"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="34"/>
+      <c r="A60" s="33"/>
       <c r="B60" s="11" t="s">
         <v>238</v>
       </c>
       <c r="C60" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D60" s="30"/>
-      <c r="E60" s="31"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="36"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="34"/>
+      <c r="A61" s="33"/>
       <c r="B61" s="11" t="s">
         <v>239</v>
       </c>
       <c r="C61" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D61" s="30"/>
-      <c r="E61" s="31"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="36"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="35"/>
+      <c r="A62" s="34"/>
       <c r="B62" s="11" t="s">
-        <v>240</v>
+        <v>437</v>
       </c>
       <c r="C62" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="D62" s="30"/>
-      <c r="E62" s="31"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="36"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="16"/>
@@ -3173,8 +3131,8 @@
       <c r="E63" s="18"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="27" t="s">
-        <v>241</v>
+      <c r="A64" s="32" t="s">
+        <v>240</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>438</v>
@@ -3182,505 +3140,505 @@
       <c r="C64" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="E64" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="E64" s="31" t="s">
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="33"/>
+      <c r="B65" s="11" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="34"/>
-      <c r="B65" s="11" t="s">
+      <c r="C65" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="D65" s="35"/>
+      <c r="E65" s="36"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="33"/>
+      <c r="B66" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="D65" s="30"/>
-      <c r="E65" s="31"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="34"/>
-      <c r="B66" s="11" t="s">
+      <c r="C66" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="D66" s="35"/>
+      <c r="E66" s="36"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="33"/>
+      <c r="B67" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="D66" s="30"/>
-      <c r="E66" s="31"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="34"/>
-      <c r="B67" s="15" t="s">
+      <c r="C67" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C67" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D67" s="30"/>
-      <c r="E67" s="31"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="36"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="34"/>
+      <c r="A68" s="33"/>
       <c r="B68" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="E68" s="36"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="33"/>
+      <c r="B69" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="E68" s="31"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="34"/>
-      <c r="B69" s="11" t="s">
+      <c r="C69" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D69" s="35"/>
+      <c r="E69" s="36"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="33"/>
+      <c r="B70" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="D69" s="30"/>
-      <c r="E69" s="31"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="34"/>
-      <c r="B70" s="11" t="s">
+      <c r="C70" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D70" s="35"/>
+      <c r="E70" s="36"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="33"/>
+      <c r="B71" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D70" s="30"/>
-      <c r="E70" s="31"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="34"/>
-      <c r="B71" s="15" t="s">
-        <v>253</v>
-      </c>
       <c r="C71" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D71" s="30"/>
-      <c r="E71" s="31"/>
+        <v>248</v>
+      </c>
+      <c r="D71" s="35"/>
+      <c r="E71" s="36"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="34"/>
+      <c r="A72" s="33"/>
       <c r="B72" s="11" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D72" s="38" t="s">
+      <c r="D72" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="E72" s="36"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="33"/>
+      <c r="B73" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E72" s="31"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="34"/>
-      <c r="B73" s="11" t="s">
+      <c r="C73" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D73" s="37"/>
+      <c r="E73" s="36"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="33"/>
+      <c r="B74" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C73" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="D73" s="38"/>
-      <c r="E73" s="31"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="34"/>
-      <c r="B74" s="11" t="s">
+      <c r="C74" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" s="37"/>
+      <c r="E74" s="36"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="33"/>
+      <c r="B75" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C74" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D74" s="38"/>
-      <c r="E74" s="31"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="34"/>
-      <c r="B75" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="C75" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D75" s="38"/>
-      <c r="E75" s="31"/>
+        <v>248</v>
+      </c>
+      <c r="D75" s="37"/>
+      <c r="E75" s="36"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="34"/>
+      <c r="A76" s="33"/>
       <c r="B76" s="11" t="s">
         <v>441</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D76" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="E76" s="36"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="33"/>
+      <c r="B77" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="E76" s="31"/>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="34"/>
-      <c r="B77" s="11" t="s">
+      <c r="C77" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D77" s="35"/>
+      <c r="E77" s="36"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="33"/>
+      <c r="B78" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C77" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="D77" s="30"/>
-      <c r="E77" s="31"/>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="34"/>
-      <c r="B78" s="11" t="s">
+      <c r="C78" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D78" s="35"/>
+      <c r="E78" s="36"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="33"/>
+      <c r="B79" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="C78" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D78" s="30"/>
-      <c r="E78" s="31"/>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="34"/>
-      <c r="B79" s="15" t="s">
-        <v>261</v>
-      </c>
       <c r="C79" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D79" s="30"/>
-      <c r="E79" s="31"/>
+        <v>248</v>
+      </c>
+      <c r="D79" s="35"/>
+      <c r="E79" s="36"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="34"/>
+      <c r="A80" s="33"/>
       <c r="B80" s="11" t="s">
         <v>442</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="D80" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="E80" s="36"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="33"/>
+      <c r="B81" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E80" s="31"/>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="34"/>
-      <c r="B81" s="11" t="s">
+      <c r="C81" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D81" s="35"/>
+      <c r="E81" s="36"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="33"/>
+      <c r="B82" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C81" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="D81" s="30"/>
-      <c r="E81" s="31"/>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="34"/>
-      <c r="B82" s="11" t="s">
+      <c r="C82" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D82" s="35"/>
+      <c r="E82" s="36"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="33"/>
+      <c r="B83" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C82" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D82" s="30"/>
-      <c r="E82" s="31"/>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="34"/>
-      <c r="B83" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="C83" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D83" s="30"/>
-      <c r="E83" s="31"/>
+        <v>248</v>
+      </c>
+      <c r="D83" s="35"/>
+      <c r="E83" s="36"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="34"/>
+      <c r="A84" s="33"/>
       <c r="B84" s="11" t="s">
         <v>443</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D84" s="30" t="s">
+      <c r="D84" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="E84" s="36"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="33"/>
+      <c r="B85" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="E84" s="31"/>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="34"/>
-      <c r="B85" s="11" t="s">
+      <c r="C85" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D85" s="35"/>
+      <c r="E85" s="36"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="33"/>
+      <c r="B86" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="C85" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="D85" s="30"/>
-      <c r="E85" s="31"/>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="34"/>
-      <c r="B86" s="11" t="s">
+      <c r="C86" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D86" s="35"/>
+      <c r="E86" s="36"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="33"/>
+      <c r="B87" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="C86" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D86" s="30"/>
-      <c r="E86" s="31"/>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="34"/>
-      <c r="B87" s="15" t="s">
-        <v>269</v>
-      </c>
       <c r="C87" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D87" s="30"/>
-      <c r="E87" s="31"/>
+        <v>248</v>
+      </c>
+      <c r="D87" s="35"/>
+      <c r="E87" s="36"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="34"/>
+      <c r="A88" s="33"/>
       <c r="B88" s="11" t="s">
         <v>444</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D88" s="38" t="s">
+      <c r="D88" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E88" s="36"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="33"/>
+      <c r="B89" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="E88" s="31"/>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="34"/>
-      <c r="B89" s="11" t="s">
+      <c r="C89" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D89" s="37"/>
+      <c r="E89" s="36"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="33"/>
+      <c r="B90" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="C89" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="D89" s="38"/>
-      <c r="E89" s="31"/>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="34"/>
-      <c r="B90" s="11" t="s">
+      <c r="C90" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D90" s="37"/>
+      <c r="E90" s="36"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="33"/>
+      <c r="B91" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="C90" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D90" s="38"/>
-      <c r="E90" s="31"/>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="34"/>
-      <c r="B91" s="15" t="s">
-        <v>273</v>
-      </c>
       <c r="C91" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D91" s="38"/>
-      <c r="E91" s="31"/>
+        <v>248</v>
+      </c>
+      <c r="D91" s="37"/>
+      <c r="E91" s="36"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="34"/>
+      <c r="A92" s="33"/>
       <c r="B92" s="11" t="s">
         <v>445</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D92" s="30" t="s">
+      <c r="D92" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="E92" s="36"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="33"/>
+      <c r="B93" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E92" s="31"/>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="34"/>
-      <c r="B93" s="11" t="s">
+      <c r="C93" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D93" s="35"/>
+      <c r="E93" s="36"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="33"/>
+      <c r="B94" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C93" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="D93" s="30"/>
-      <c r="E93" s="31"/>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="34"/>
-      <c r="B94" s="11" t="s">
+      <c r="C94" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D94" s="35"/>
+      <c r="E94" s="36"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="33"/>
+      <c r="B95" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C94" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D94" s="30"/>
-      <c r="E94" s="31"/>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="34"/>
-      <c r="B95" s="15" t="s">
+      <c r="C95" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D95" s="35"/>
+      <c r="E95" s="36"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="33"/>
+      <c r="B96" s="11" t="s">
         <v>277</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D95" s="30"/>
-      <c r="E95" s="31"/>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="34"/>
-      <c r="B96" s="11" t="s">
-        <v>278</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D96" s="30" t="s">
+      <c r="D96" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E96" s="36"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="33"/>
+      <c r="B97" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="E96" s="31"/>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="34"/>
-      <c r="B97" s="11" t="s">
+      <c r="C97" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D97" s="35"/>
+      <c r="E97" s="36"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="33"/>
+      <c r="B98" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="C97" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="D97" s="30"/>
-      <c r="E97" s="31"/>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="34"/>
-      <c r="B98" s="11" t="s">
+      <c r="C98" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D98" s="35"/>
+      <c r="E98" s="36"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="33"/>
+      <c r="B99" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="C98" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D98" s="30"/>
-      <c r="E98" s="31"/>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="34"/>
-      <c r="B99" s="15" t="s">
+      <c r="C99" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D99" s="35"/>
+      <c r="E99" s="36"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="33"/>
+      <c r="B100" s="11" t="s">
         <v>282</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D99" s="30"/>
-      <c r="E99" s="31"/>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="34"/>
-      <c r="B100" s="11" t="s">
-        <v>283</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D100" s="30" t="s">
+      <c r="D100" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E100" s="36"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="33"/>
+      <c r="B101" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="E100" s="31"/>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="34"/>
-      <c r="B101" s="11" t="s">
+      <c r="C101" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D101" s="35"/>
+      <c r="E101" s="36"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="33"/>
+      <c r="B102" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="C101" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="D101" s="30"/>
-      <c r="E101" s="31"/>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="34"/>
-      <c r="B102" s="11" t="s">
+      <c r="C102" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D102" s="35"/>
+      <c r="E102" s="36"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="33"/>
+      <c r="B103" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="C102" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D102" s="30"/>
-      <c r="E102" s="31"/>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="34"/>
-      <c r="B103" s="15" t="s">
+      <c r="C103" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D103" s="35"/>
+      <c r="E103" s="36"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="33"/>
+      <c r="B104" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D103" s="30"/>
-      <c r="E103" s="31"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="34"/>
-      <c r="B104" s="11" t="s">
-        <v>288</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D104" s="38" t="s">
+      <c r="D104" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="E104" s="36"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="33"/>
+      <c r="B105" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="E104" s="31"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="34"/>
-      <c r="B105" s="11" t="s">
+      <c r="C105" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D105" s="37"/>
+      <c r="E105" s="36"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="33"/>
+      <c r="B106" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="C105" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="D105" s="38"/>
-      <c r="E105" s="31"/>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="34"/>
-      <c r="B106" s="11" t="s">
+      <c r="C106" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D106" s="37"/>
+      <c r="E106" s="36"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="34"/>
+      <c r="B107" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C106" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D106" s="38"/>
-      <c r="E106" s="31"/>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="35"/>
-      <c r="B107" s="11" t="s">
-        <v>292</v>
-      </c>
       <c r="C107" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="D107" s="39"/>
-      <c r="E107" s="31"/>
+        <v>248</v>
+      </c>
+      <c r="D107" s="38"/>
+      <c r="E107" s="36"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="16"/>
@@ -3690,361 +3648,361 @@
       <c r="E108" s="18"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="27" t="s">
+      <c r="A109" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="B109" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="C109" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="D109" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="D109" s="30" t="s">
+      <c r="E109" s="39" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="33"/>
+      <c r="B110" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="E109" s="36" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="34"/>
-      <c r="B110" s="11" t="s">
+      <c r="C110" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="D110" s="35"/>
+      <c r="E110" s="39"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="33"/>
+      <c r="B111" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="D110" s="30"/>
-      <c r="E110" s="36"/>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="34"/>
-      <c r="B111" s="11" t="s">
+      <c r="C111" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="D111" s="35"/>
+      <c r="E111" s="39"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="33"/>
+      <c r="B112" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="C112" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="D111" s="30"/>
-      <c r="E111" s="36"/>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="34"/>
-      <c r="B112" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="C112" s="11" t="s">
+      <c r="D112" s="35"/>
+      <c r="E112" s="39"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="33"/>
+      <c r="B113" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="D112" s="30"/>
-      <c r="E112" s="36"/>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="34"/>
-      <c r="B113" s="11" t="s">
+      <c r="C113" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="D113" s="35"/>
+      <c r="E113" s="39"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="33"/>
+      <c r="B114" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="D113" s="30"/>
-      <c r="E113" s="36"/>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="34"/>
-      <c r="B114" s="15" t="s">
+      <c r="C114" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="C114" s="15" t="s">
+      <c r="D114" s="35"/>
+      <c r="E114" s="39"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="33"/>
+      <c r="B115" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="D114" s="30"/>
-      <c r="E114" s="36"/>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="34"/>
-      <c r="B115" s="11" t="s">
+      <c r="C115" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="D115" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="D115" s="30" t="s">
+      <c r="E115" s="39"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="33"/>
+      <c r="B116" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E115" s="36"/>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="34"/>
-      <c r="B116" s="11" t="s">
+      <c r="C116" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="D116" s="35"/>
+      <c r="E116" s="39"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="33"/>
+      <c r="B117" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="C117" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="D116" s="30"/>
-      <c r="E116" s="36"/>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="34"/>
-      <c r="B117" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="C117" s="11" t="s">
+      <c r="D117" s="35"/>
+      <c r="E117" s="39"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="33"/>
+      <c r="B118" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="D117" s="30"/>
-      <c r="E117" s="36"/>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="34"/>
-      <c r="B118" s="11" t="s">
+      <c r="C118" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="D118" s="35"/>
+      <c r="E118" s="39"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="33"/>
+      <c r="B119" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="D118" s="30"/>
-      <c r="E118" s="36"/>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="34"/>
-      <c r="B119" s="15" t="s">
+      <c r="C119" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="C119" s="15" t="s">
+      <c r="D119" s="35"/>
+      <c r="E119" s="39"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="33"/>
+      <c r="B120" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="C120" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="D119" s="30"/>
-      <c r="E119" s="36"/>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="34"/>
-      <c r="B120" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="C120" s="11" t="s">
+      <c r="D120" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="E120" s="39"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="33"/>
+      <c r="B121" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C121" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="D120" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E120" s="36"/>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="34"/>
-      <c r="B121" s="11" t="s">
+      <c r="D121" s="35"/>
+      <c r="E121" s="39"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="33"/>
+      <c r="B122" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C122" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="D122" s="35"/>
+      <c r="E122" s="39"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="33"/>
+      <c r="B123" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C123" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="D121" s="30"/>
-      <c r="E121" s="36"/>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="34"/>
-      <c r="B122" s="11" t="s">
+      <c r="D123" s="35"/>
+      <c r="E123" s="39"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="33"/>
+      <c r="B124" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C124" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="D124" s="35"/>
+      <c r="E124" s="39"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="33"/>
+      <c r="B125" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C125" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="D122" s="30"/>
-      <c r="E122" s="36"/>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="34"/>
-      <c r="B123" s="11" t="s">
+      <c r="D125" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="E125" s="39"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="33"/>
+      <c r="B126" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="D123" s="30"/>
-      <c r="E123" s="36"/>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="34"/>
-      <c r="B124" s="15" t="s">
+      <c r="C126" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C124" s="15" t="s">
+      <c r="D126" s="40"/>
+      <c r="E126" s="39"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="33"/>
+      <c r="B127" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="D124" s="30"/>
-      <c r="E124" s="36"/>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="34"/>
-      <c r="B125" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="C125" s="11" t="s">
+      <c r="C127" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="D125" s="37" t="s">
+      <c r="D127" s="40"/>
+      <c r="E127" s="39"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="33"/>
+      <c r="B128" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="E125" s="36"/>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="34"/>
-      <c r="B126" s="11" t="s">
+      <c r="C128" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="D128" s="40"/>
+      <c r="E128" s="39"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="33"/>
+      <c r="B129" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="D126" s="37"/>
-      <c r="E126" s="36"/>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="34"/>
-      <c r="B127" s="11" t="s">
+      <c r="C129" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="D129" s="40"/>
+      <c r="E129" s="39"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="33"/>
+      <c r="B130" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C130" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="D127" s="37"/>
-      <c r="E127" s="36"/>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="34"/>
-      <c r="B128" s="11" t="s">
+      <c r="D130" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="E130" s="39"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="33"/>
+      <c r="B131" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="D128" s="37"/>
-      <c r="E128" s="36"/>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="34"/>
-      <c r="B129" s="15" t="s">
+      <c r="C131" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="C129" s="15" t="s">
+      <c r="D131" s="35"/>
+      <c r="E131" s="39"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="33"/>
+      <c r="B132" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="C132" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="D129" s="37"/>
-      <c r="E129" s="36"/>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="34"/>
-      <c r="B130" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="C130" s="11" t="s">
+      <c r="D132" s="35"/>
+      <c r="E132" s="39"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="33"/>
+      <c r="B133" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="D130" s="30" t="s">
+      <c r="C133" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="E130" s="36"/>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="34"/>
-      <c r="B131" s="11" t="s">
+      <c r="D133" s="35"/>
+      <c r="E133" s="39"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="33"/>
+      <c r="B134" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C134" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="D131" s="30"/>
-      <c r="E131" s="36"/>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="34"/>
-      <c r="B132" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="C132" s="11" t="s">
+      <c r="D134" s="35"/>
+      <c r="E134" s="39"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="33"/>
+      <c r="B135" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="C135" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="D132" s="30"/>
-      <c r="E132" s="36"/>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="34"/>
-      <c r="B133" s="11" t="s">
+      <c r="D135" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="E135" s="39"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="33"/>
+      <c r="B136" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="D133" s="30"/>
-      <c r="E133" s="36"/>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="34"/>
-      <c r="B134" s="15" t="s">
+      <c r="C136" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="C134" s="15" t="s">
+      <c r="D136" s="35"/>
+      <c r="E136" s="39"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="33"/>
+      <c r="B137" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="D134" s="30"/>
-      <c r="E134" s="36"/>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="34"/>
-      <c r="B135" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="C135" s="11" t="s">
+      <c r="C137" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="D135" s="30" t="s">
+      <c r="D137" s="35"/>
+      <c r="E137" s="39"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="33"/>
+      <c r="B138" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="E135" s="36"/>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="34"/>
-      <c r="B136" s="11" t="s">
+      <c r="C138" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C136" s="11" t="s">
+      <c r="D138" s="35"/>
+      <c r="E138" s="39"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="34"/>
+      <c r="B139" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="D136" s="30"/>
-      <c r="E136" s="36"/>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="34"/>
-      <c r="B137" s="11" t="s">
+      <c r="C139" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C137" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="D137" s="30"/>
-      <c r="E137" s="36"/>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="34"/>
-      <c r="B138" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="D138" s="30"/>
-      <c r="E138" s="36"/>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="35"/>
-      <c r="B139" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="D139" s="30"/>
-      <c r="E139" s="36"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="39"/>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="16"/>
@@ -4054,137 +4012,137 @@
       <c r="E140" s="18"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="32" t="s">
-        <v>474</v>
+      <c r="A141" s="41" t="s">
+        <v>431</v>
       </c>
       <c r="B141" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D141" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="E141" s="36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="41"/>
+      <c r="B142" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D142" s="42"/>
+      <c r="E142" s="36"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="41"/>
+      <c r="B143" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C143" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="C141" s="11" t="s">
+      <c r="D143" s="42"/>
+      <c r="E143" s="36"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="41"/>
+      <c r="B144" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="D141" s="33" t="s">
+      <c r="C144" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="E141" s="31" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="32"/>
-      <c r="B142" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="C142" s="11" t="s">
+      <c r="D144" s="42"/>
+      <c r="E144" s="36"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="41"/>
+      <c r="B145" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D142" s="33"/>
-      <c r="E142" s="31"/>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="32"/>
-      <c r="B143" s="11" t="s">
+      <c r="C145" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="C143" s="11" t="s">
+      <c r="D145" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="D143" s="33"/>
-      <c r="E143" s="31"/>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="32"/>
-      <c r="B144" s="15" t="s">
+      <c r="E145" s="36"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="41"/>
+      <c r="B146" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="C144" s="15" t="s">
+      <c r="C146" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="D144" s="33"/>
-      <c r="E144" s="31"/>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="32"/>
-      <c r="B145" s="11" t="s">
+      <c r="D146" s="42"/>
+      <c r="E146" s="36"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="41"/>
+      <c r="B147" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="C145" s="11" t="s">
+      <c r="C147" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="D145" s="33" t="s">
+      <c r="D147" s="42"/>
+      <c r="E147" s="36"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="41"/>
+      <c r="B148" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="E145" s="31"/>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="32"/>
-      <c r="B146" s="11" t="s">
+      <c r="C148" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="D148" s="42"/>
+      <c r="E148" s="36"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="41"/>
+      <c r="B149" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="D146" s="33"/>
-      <c r="E146" s="31"/>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="32"/>
-      <c r="B147" s="11" t="s">
+      <c r="C149" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="D149" s="14"/>
+      <c r="E149" s="36"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="41"/>
+      <c r="B150" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C150" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="D147" s="33"/>
-      <c r="E147" s="31"/>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="32"/>
-      <c r="B148" s="15" t="s">
+      <c r="D150" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="C148" s="15" t="s">
+      <c r="E150" s="36"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="41"/>
+      <c r="B151" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="C151" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="D148" s="33"/>
-      <c r="E148" s="31"/>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="32"/>
-      <c r="B149" s="11" t="s">
+      <c r="D151" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="C149" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="D149" s="14"/>
-      <c r="E149" s="31"/>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="32"/>
-      <c r="B150" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="D150" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="E150" s="31"/>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="32"/>
-      <c r="B151" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="D151" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E151" s="31"/>
+      <c r="E151" s="36"/>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="16"/>
@@ -4194,269 +4152,269 @@
       <c r="E152" s="18"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="27" t="s">
+      <c r="A153" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D153" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="E153" s="36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="43"/>
+      <c r="B154" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C154" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="D154" s="35"/>
+      <c r="E154" s="36"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="43"/>
+      <c r="B155" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="C153" s="11" t="s">
+      <c r="C155" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="D153" s="30" t="s">
+      <c r="D155" s="35"/>
+      <c r="E155" s="36"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="43"/>
+      <c r="B156" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="E153" s="31" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="28"/>
-      <c r="B154" s="11" t="s">
+      <c r="C156" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="C154" s="11" t="s">
+      <c r="D156" s="35"/>
+      <c r="E156" s="36"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="43"/>
+      <c r="B157" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="D154" s="30"/>
-      <c r="E154" s="31"/>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="28"/>
-      <c r="B155" s="11" t="s">
+      <c r="C157" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="C155" s="11" t="s">
+      <c r="D157" s="35"/>
+      <c r="E157" s="36"/>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="43"/>
+      <c r="B158" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="D155" s="30"/>
-      <c r="E155" s="31"/>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="28"/>
-      <c r="B156" s="11" t="s">
+      <c r="C158" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="C156" s="11" t="s">
+      <c r="D158" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="D156" s="30"/>
-      <c r="E156" s="31"/>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="28"/>
-      <c r="B157" s="15" t="s">
+      <c r="E158" s="36"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="43"/>
+      <c r="B159" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="C157" s="15" t="s">
+      <c r="C159" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="D157" s="30"/>
-      <c r="E157" s="31"/>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="28"/>
-      <c r="B158" s="11" t="s">
+      <c r="D159" s="35"/>
+      <c r="E159" s="36"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="43"/>
+      <c r="B160" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="C158" s="11" t="s">
+      <c r="C160" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="D158" s="30" t="s">
+      <c r="D160" s="35"/>
+      <c r="E160" s="36"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="43"/>
+      <c r="B161" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="E158" s="31"/>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="28"/>
-      <c r="B159" s="11" t="s">
+      <c r="C161" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="C159" s="11" t="s">
+      <c r="D161" s="35"/>
+      <c r="E161" s="36"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="43"/>
+      <c r="B162" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="D159" s="30"/>
-      <c r="E159" s="31"/>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="28"/>
-      <c r="B160" s="11" t="s">
+      <c r="C162" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="C160" s="11" t="s">
+      <c r="D162" s="35"/>
+      <c r="E162" s="36"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="43"/>
+      <c r="B163" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="D160" s="30"/>
-      <c r="E160" s="31"/>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="28"/>
-      <c r="B161" s="11" t="s">
+      <c r="C163" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="C161" s="11" t="s">
+      <c r="D163" s="35"/>
+      <c r="E163" s="36"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="43"/>
+      <c r="B164" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="D161" s="30"/>
-      <c r="E161" s="31"/>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="28"/>
-      <c r="B162" s="11" t="s">
+      <c r="C164" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="C162" s="11" t="s">
+      <c r="D164" s="35" t="s">
         <v>400</v>
       </c>
-      <c r="D162" s="30"/>
-      <c r="E162" s="31"/>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="28"/>
-      <c r="B163" s="15" t="s">
+      <c r="E164" s="36"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="43"/>
+      <c r="B165" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="C163" s="15" t="s">
+      <c r="C165" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="D163" s="30"/>
-      <c r="E163" s="31"/>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="28"/>
-      <c r="B164" s="11" t="s">
+      <c r="D165" s="35"/>
+      <c r="E165" s="36"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="43"/>
+      <c r="B166" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="C164" s="11" t="s">
+      <c r="C166" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="D164" s="30" t="s">
+      <c r="D166" s="35"/>
+      <c r="E166" s="36"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="43"/>
+      <c r="B167" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="E164" s="31"/>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="28"/>
-      <c r="B165" s="11" t="s">
+      <c r="C167" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="C165" s="11" t="s">
+      <c r="D167" s="35"/>
+      <c r="E167" s="36"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="43"/>
+      <c r="B168" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="D165" s="30"/>
-      <c r="E165" s="31"/>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="28"/>
-      <c r="B166" s="11" t="s">
+      <c r="C168" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="C166" s="11" t="s">
+      <c r="D168" s="35"/>
+      <c r="E168" s="36"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="43"/>
+      <c r="B169" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="D166" s="30"/>
-      <c r="E166" s="31"/>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="28"/>
-      <c r="B167" s="11" t="s">
+      <c r="C169" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="C167" s="11" t="s">
+      <c r="D169" s="35"/>
+      <c r="E169" s="36"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="43"/>
+      <c r="B170" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D167" s="30"/>
-      <c r="E167" s="31"/>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="28"/>
-      <c r="B168" s="11" t="s">
+      <c r="C170" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="C168" s="11" t="s">
+      <c r="D170" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="D168" s="30"/>
-      <c r="E168" s="31"/>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="28"/>
-      <c r="B169" s="15" t="s">
+      <c r="E170" s="36"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="43"/>
+      <c r="B171" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="C169" s="15" t="s">
+      <c r="C171" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="D169" s="30"/>
-      <c r="E169" s="31"/>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="28"/>
-      <c r="B170" s="11" t="s">
+      <c r="D171" s="35"/>
+      <c r="E171" s="36"/>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="43"/>
+      <c r="B172" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="C170" s="11" t="s">
+      <c r="C172" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="D170" s="30" t="s">
+      <c r="D172" s="35"/>
+      <c r="E172" s="36"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="43"/>
+      <c r="B173" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="E170" s="31"/>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="28"/>
-      <c r="B171" s="11" t="s">
+      <c r="C173" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="D173" s="35"/>
+      <c r="E173" s="36"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="43"/>
+      <c r="B174" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="D171" s="30"/>
-      <c r="E171" s="31"/>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="28"/>
-      <c r="B172" s="11" t="s">
+      <c r="C174" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="D174" s="35"/>
+      <c r="E174" s="36"/>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="44"/>
+      <c r="B175" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="D172" s="30"/>
-      <c r="E172" s="31"/>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="28"/>
-      <c r="B173" s="11" t="s">
+      <c r="C175" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="C173" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="D173" s="30"/>
-      <c r="E173" s="31"/>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="28"/>
-      <c r="B174" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="D174" s="30"/>
-      <c r="E174" s="31"/>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="29"/>
-      <c r="B175" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="C175" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="D175" s="30"/>
-      <c r="E175" s="31"/>
+      <c r="D175" s="35"/>
+      <c r="E175" s="36"/>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="24"/>
@@ -4466,197 +4424,211 @@
       <c r="E176" s="26"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="27" t="s">
-        <v>429</v>
+      <c r="A177" s="32" t="s">
+        <v>424</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="C177" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D177" s="30" t="s">
-        <v>430</v>
-      </c>
-      <c r="E177" s="31" t="s">
+      <c r="D177" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="E177" s="36" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="28"/>
+      <c r="A178" s="43"/>
       <c r="B178" s="11" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="C178" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D178" s="30"/>
-      <c r="E178" s="31"/>
+      <c r="D178" s="35"/>
+      <c r="E178" s="36"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="28"/>
+      <c r="A179" s="43"/>
       <c r="B179" s="15" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="D179" s="30"/>
-      <c r="E179" s="31"/>
+        <v>426</v>
+      </c>
+      <c r="D179" s="35"/>
+      <c r="E179" s="36"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="28"/>
+      <c r="A180" s="43"/>
       <c r="B180" s="11" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="C180" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D180" s="30" t="s">
-        <v>432</v>
-      </c>
-      <c r="E180" s="31"/>
+      <c r="D180" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="E180" s="36"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="28"/>
+      <c r="A181" s="43"/>
       <c r="B181" s="11" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D181" s="30"/>
-      <c r="E181" s="31"/>
+      <c r="D181" s="35"/>
+      <c r="E181" s="36"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="28"/>
+      <c r="A182" s="43"/>
       <c r="B182" s="15" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="D182" s="30"/>
-      <c r="E182" s="31"/>
+        <v>426</v>
+      </c>
+      <c r="D182" s="35"/>
+      <c r="E182" s="36"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="28"/>
+      <c r="A183" s="43"/>
       <c r="B183" s="11" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D183" s="30" t="s">
-        <v>433</v>
-      </c>
-      <c r="E183" s="31"/>
+      <c r="D183" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="E183" s="36"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="28"/>
+      <c r="A184" s="43"/>
       <c r="B184" s="11" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="C184" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D184" s="30"/>
-      <c r="E184" s="31"/>
+      <c r="D184" s="35"/>
+      <c r="E184" s="36"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="28"/>
+      <c r="A185" s="43"/>
       <c r="B185" s="15" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="D185" s="30"/>
-      <c r="E185" s="31"/>
+        <v>426</v>
+      </c>
+      <c r="D185" s="35"/>
+      <c r="E185" s="36"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="28"/>
+      <c r="A186" s="43"/>
       <c r="B186" s="11" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="C186" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D186" s="30" t="s">
-        <v>434</v>
-      </c>
-      <c r="E186" s="31"/>
+      <c r="D186" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="E186" s="36"/>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="28"/>
+      <c r="A187" s="43"/>
       <c r="B187" s="11" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="C187" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D187" s="30"/>
-      <c r="E187" s="31"/>
+      <c r="D187" s="35"/>
+      <c r="E187" s="36"/>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="28"/>
+      <c r="A188" s="43"/>
       <c r="B188" s="15" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="D188" s="30"/>
-      <c r="E188" s="31"/>
+        <v>426</v>
+      </c>
+      <c r="D188" s="35"/>
+      <c r="E188" s="36"/>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="28"/>
+      <c r="A189" s="43"/>
       <c r="B189" s="11" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="C189" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D189" s="30" t="s">
-        <v>435</v>
-      </c>
-      <c r="E189" s="31"/>
+      <c r="D189" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E189" s="36"/>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="28"/>
+      <c r="A190" s="43"/>
       <c r="B190" s="11" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D190" s="30"/>
-      <c r="E190" s="31"/>
+      <c r="D190" s="35"/>
+      <c r="E190" s="36"/>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="29"/>
+      <c r="A191" s="44"/>
       <c r="B191" s="15" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="D191" s="30"/>
-      <c r="E191" s="31"/>
+        <v>426</v>
+      </c>
+      <c r="D191" s="35"/>
+      <c r="E191" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A14:A62"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="E14:E62"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="D28:D34"/>
-    <mergeCell ref="D35:D41"/>
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="D49:D55"/>
-    <mergeCell ref="D56:D62"/>
+    <mergeCell ref="A177:A191"/>
+    <mergeCell ref="D177:D179"/>
+    <mergeCell ref="E177:E191"/>
+    <mergeCell ref="D180:D182"/>
+    <mergeCell ref="D183:D185"/>
+    <mergeCell ref="D186:D188"/>
+    <mergeCell ref="D189:D191"/>
+    <mergeCell ref="A141:A151"/>
+    <mergeCell ref="D141:D144"/>
+    <mergeCell ref="E141:E151"/>
+    <mergeCell ref="D145:D148"/>
+    <mergeCell ref="A153:A175"/>
+    <mergeCell ref="D153:D157"/>
+    <mergeCell ref="E153:E175"/>
+    <mergeCell ref="D158:D163"/>
+    <mergeCell ref="D164:D169"/>
+    <mergeCell ref="D170:D175"/>
+    <mergeCell ref="A109:A139"/>
+    <mergeCell ref="D109:D114"/>
+    <mergeCell ref="E109:E139"/>
+    <mergeCell ref="D115:D119"/>
+    <mergeCell ref="D120:D124"/>
+    <mergeCell ref="D125:D129"/>
+    <mergeCell ref="D130:D134"/>
+    <mergeCell ref="D135:D139"/>
     <mergeCell ref="A64:A107"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="D104:D107"/>
@@ -4670,31 +4642,17 @@
     <mergeCell ref="D92:D95"/>
     <mergeCell ref="D96:D99"/>
     <mergeCell ref="D100:D103"/>
-    <mergeCell ref="A109:A139"/>
-    <mergeCell ref="D109:D114"/>
-    <mergeCell ref="E109:E139"/>
-    <mergeCell ref="D115:D119"/>
-    <mergeCell ref="D120:D124"/>
-    <mergeCell ref="D125:D129"/>
-    <mergeCell ref="D130:D134"/>
-    <mergeCell ref="D135:D139"/>
-    <mergeCell ref="A141:A151"/>
-    <mergeCell ref="D141:D144"/>
-    <mergeCell ref="E141:E151"/>
-    <mergeCell ref="D145:D148"/>
-    <mergeCell ref="A153:A175"/>
-    <mergeCell ref="D153:D157"/>
-    <mergeCell ref="E153:E175"/>
-    <mergeCell ref="D158:D163"/>
-    <mergeCell ref="D164:D169"/>
-    <mergeCell ref="D170:D175"/>
-    <mergeCell ref="A177:A191"/>
-    <mergeCell ref="D177:D179"/>
-    <mergeCell ref="E177:E191"/>
-    <mergeCell ref="D180:D182"/>
-    <mergeCell ref="D183:D185"/>
-    <mergeCell ref="D186:D188"/>
-    <mergeCell ref="D189:D191"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A14:A62"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="E14:E62"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="D28:D34"/>
+    <mergeCell ref="D35:D41"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="D49:D55"/>
+    <mergeCell ref="D56:D62"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C111">
